--- a/StructureDefinition-ext-R5-TestScript.set.act.assert.xlsx
+++ b/StructureDefinition-ext-R5-TestScript.set.act.assert.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -646,7 +646,7 @@
   </si>
   <si>
     <t>Element `TestScript.setup.action.assert.defaultManualCompletion` is part of an existing definition because parent element `TestScript.setup.action.assert` requires a component extension (e.g., if this element is used as a content reference).
-Element `TestScript.setup.action.assert.defaultManualCompletion` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Element `TestScript.setup.action.assert.defaultManualCompletion` is will have a context of TestScript.setup.action.assert based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:defaultManualCompletion.id</t>
@@ -1116,7 +1116,7 @@
   </si>
   <si>
     <t>Element `TestScript.setup.action.assert.stopTestOnFail` is part of an existing definition because parent element `TestScript.setup.action.assert` requires a component extension (e.g., if this element is used as a content reference).
-Element `TestScript.setup.action.assert.stopTestOnFail` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Element `TestScript.setup.action.assert.stopTestOnFail` is will have a context of TestScript.setup.action.assert based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:stopTestOnFail.id</t>
@@ -1252,7 +1252,7 @@
   </si>
   <si>
     <t>Element `TestScript.setup.action.assert.requirement` is part of an existing definition because parent element `TestScript.setup.action.assert` requires a component extension (e.g., if this element is used as a content reference).
-Element `TestScript.setup.action.assert.requirement` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Element `TestScript.setup.action.assert.requirement` is will have a context of TestScript.setup.action.assert based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:requirement.id</t>
@@ -1274,7 +1274,7 @@
   </si>
   <si>
     <t>Element `TestScript.setup.action.assert.requirement.link[x]` is part of an existing definition because parent element `TestScript.setup.action.assert.requirement` requires a cross-version extension.
-Element `TestScript.setup.action.assert.requirement.link[x]` is mapped to FHIR R4 structure `TestScript`, but has no target element specified.</t>
+Element `TestScript.setup.action.assert.requirement.link[x]` is will have a context of TestScript.setup.action.assert based on following the parent source element upwards and mapping to `TestScript`.</t>
   </si>
   <si>
     <t>Extension.extension:requirement.extension:link.id</t>
